--- a/system_development/Moultrie/v0.3/cart/BOM-v0.3-cart.xlsx
+++ b/system_development/Moultrie/v0.3/cart/BOM-v0.3-cart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\flow-through-water-quality-system\system_development\Moultrie\v0.3\cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b764c3f208c2f07/Documents/GitHub/flowthrough-water-quality-monitoring-system/system_development/Moultrie/v0.3/cart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DE3EE7-0F42-435A-8ECB-B505C4FA49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{08DE3EE7-0F42-435A-8ECB-B505C4FA49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{482AB8F0-3ED9-4FCF-A073-0D39CAC43EF4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="0" yWindow="1656" windowWidth="23028" windowHeight="10584" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Total Cost</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>PLA Basic - red</t>
+  </si>
+  <si>
+    <t>Box - external parts cover</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/SSI-SCHAEFER-Straight-Wall-Tote-8-8-gal-9LEZ8?opr=ILOF</t>
+  </si>
+  <si>
+    <t>SSI SCHAEFER Straight Wall Tote: 8.8 gal, 19 in x 13 in x 12 in, Stacking Capable, Blue</t>
   </si>
 </sst>
 </file>
@@ -504,26 +513,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26171875" customWidth="1"/>
+    <col min="6" max="6" width="75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="76" customWidth="1"/>
-    <col min="8" max="8" width="83.5703125" customWidth="1"/>
-    <col min="9" max="9" width="62.5703125" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="83.578125" customWidth="1"/>
+    <col min="9" max="9" width="62.578125" customWidth="1"/>
+    <col min="10" max="10" width="55.83984375" customWidth="1"/>
     <col min="11" max="11" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -558,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -581,7 +590,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -603,7 +612,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -626,17 +635,29 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3"/>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="E5" s="6">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -646,7 +667,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -656,7 +677,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -664,7 +685,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -674,7 +695,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -684,7 +705,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -693,7 +714,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
@@ -702,7 +723,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -710,7 +731,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -723,7 +744,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -732,7 +753,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -741,7 +762,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -750,7 +771,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -759,7 +780,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -768,7 +789,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -777,9 +798,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -788,7 +809,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -797,7 +818,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -806,7 +827,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -815,7 +836,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -824,7 +845,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -833,7 +854,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -842,7 +863,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
@@ -851,7 +872,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -860,7 +881,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -870,7 +891,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -878,7 +899,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -887,7 +908,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
@@ -896,7 +917,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -905,7 +926,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -913,7 +934,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -921,7 +942,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -929,20 +950,20 @@
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="6">
         <f>SUM(E2:E41)</f>
-        <v>53.379999999999995</v>
+        <v>118.19999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/system_development/Moultrie/v0.3/cart/BOM-v0.3-cart.xlsx
+++ b/system_development/Moultrie/v0.3/cart/BOM-v0.3-cart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b764c3f208c2f07/Documents/GitHub/flowthrough-water-quality-monitoring-system/system_development/Moultrie/v0.3/cart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qizheng/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{08DE3EE7-0F42-435A-8ECB-B505C4FA49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{482AB8F0-3ED9-4FCF-A073-0D39CAC43EF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C184E-151D-1A4B-930B-8CDBF300DE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1656" windowWidth="23028" windowHeight="10584" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Total Cost</t>
   </si>
@@ -108,6 +108,69 @@
   </si>
   <si>
     <t>SSI SCHAEFER Straight Wall Tote: 8.8 gal, 19 in x 13 in x 12 in, Stacking Capable, Blue</t>
+  </si>
+  <si>
+    <t>Extruded aluminum</t>
+  </si>
+  <si>
+    <t>Threaded inserts</t>
+  </si>
+  <si>
+    <t>80/20 brackets</t>
+  </si>
+  <si>
+    <t>80/20 fasteners</t>
+  </si>
+  <si>
+    <t>Roll In T-Nut: 15 Series/40 Series, M5 Fastener Thread Size, For 8 mm Slot Wd, Single Offset, 4 PK</t>
+  </si>
+  <si>
+    <t>80/20 T-nut</t>
+  </si>
+  <si>
+    <t>Socket head cap screws</t>
+  </si>
+  <si>
+    <t>Socket Head Cap Screw: M5-0.8 Thread Size, 30 mm Lg, Std, Black Oxide, Steel, Class 12.9, 100 PK</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Socket-Head-Cap-Screw-M5-0-26LG30?msockid=072e03e7d7f269131431162fd60e6862</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/FATH-INC-Roll-In-T-Nut-15-Series-40-55MT17?msockid=072e03e7d7f269131431162fd60e6862</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/products/aluminum-extrusions/t-slotted-framing-rails-1~/</t>
+  </si>
+  <si>
+    <t>T-Slotted Framing, Single Four Slot Rail, Silver, 20 mm Square, Solid, 10 ft</t>
+  </si>
+  <si>
+    <t>10 S / 25 S 2 Hole Inside Corner Gusset</t>
+  </si>
+  <si>
+    <t>https://www.alufabinc.com/product/10-s-25-s-2-hole-inside-corner-gusset/</t>
+  </si>
+  <si>
+    <t>Aluminum plate</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/products/aluminum-plates/multipurpose-6061-aluminum-sheets-and-bars-7/</t>
+  </si>
+  <si>
+    <t>Stainless Steel Helical Insert, M5 x 0.8 Thread Size, 5 mm Long, Pack of 10</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/products/threaded-inserts/threaded-inserts-3~/stainless-steel-helical-inserts-9/thread-size~m5/</t>
+  </si>
+  <si>
+    <t>18-8 Stainless Steel Low-Profile Socket Head Screws with Hex Drive, M5 x 0.8 mm Thread, 10 mm Long, Pack of 50</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/products/screws/socket-head-screws-2~/thread-size~m5/18-8-stainless-steel-low-profile-socket-head-screws/</t>
+  </si>
+  <si>
+    <t>Multipurpose 6061 Aluminum Sheet, 1/8" Thick, 12" x 12"</t>
   </si>
 </sst>
 </file>
@@ -513,26 +576,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26171875" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="76" customWidth="1"/>
-    <col min="8" max="8" width="83.578125" customWidth="1"/>
-    <col min="9" max="9" width="62.578125" customWidth="1"/>
-    <col min="10" max="10" width="55.83984375" customWidth="1"/>
+    <col min="8" max="8" width="83.5" customWidth="1"/>
+    <col min="9" max="9" width="62.5" customWidth="1"/>
+    <col min="10" max="10" width="55.83203125" customWidth="1"/>
     <col min="11" max="11" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -567,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -590,7 +653,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -612,7 +675,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -626,7 +689,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E12" si="0">C4*D4</f>
         <v>19.989999999999998</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -635,7 +698,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -649,6 +712,7 @@
         <v>64.819999999999993</v>
       </c>
       <c r="E5" s="6">
+        <f t="shared" si="0"/>
         <v>64.819999999999993</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -657,73 +721,164 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>34.04</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>68.08</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>31.94</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>63.88</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.38</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>6.76</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.45</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>136.25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3"/>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6.78</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>88.14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="3"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>17.04</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>17.04</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -731,7 +886,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -744,7 +899,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -753,7 +908,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -762,7 +917,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -771,7 +926,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -780,7 +935,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -789,7 +944,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -798,9 +953,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -809,7 +964,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -818,7 +973,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -827,7 +982,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -836,7 +991,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -845,7 +1000,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -854,7 +1009,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -863,7 +1018,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
@@ -872,7 +1027,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -881,7 +1036,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -891,7 +1046,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -899,7 +1054,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -908,7 +1063,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
@@ -917,7 +1072,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -926,7 +1081,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -934,7 +1089,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -942,7 +1097,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -950,28 +1105,36 @@
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="6">
         <f>SUM(E2:E41)</f>
-        <v>118.19999999999999</v>
+        <v>510.45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{6624F982-B428-4251-AA28-31179DCD8937}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{58E2A489-0714-4655-8748-622D874EF6F8}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{F29456D7-0B39-A643-B17C-CEBA727A866D}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{68C967F9-A3A1-9344-B6A0-F79BCEB428C6}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{DA883558-1F93-F54F-8068-C8A324A94099}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{DBC929F0-848D-7D43-9FCD-9AA81D480FDF}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{2697971B-F424-7F43-9D25-F8DD2AB9A64F}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{7BAB4E45-A6E5-B54E-B4E7-980D3A49764F}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{29553635-2A91-4048-BD3A-AA2B63BC1E10}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{AF43F826-6010-5F46-85BE-E2B9217CA3AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/system_development/Moultrie/v0.3/cart/BOM-v0.3-cart.xlsx
+++ b/system_development/Moultrie/v0.3/cart/BOM-v0.3-cart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qizheng/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\flow-through-water-quality-system\system_development\Moultrie\v0.3\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C184E-151D-1A4B-930B-8CDBF300DE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9137B9B-C6E1-41BB-A76E-3D7387188CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Total Cost</t>
   </si>
@@ -218,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -238,6 +238,10 @@
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -577,25 +581,25 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="76" customWidth="1"/>
-    <col min="8" max="8" width="83.5" customWidth="1"/>
-    <col min="9" max="9" width="62.5" customWidth="1"/>
-    <col min="10" max="10" width="55.83203125" customWidth="1"/>
+    <col min="8" max="8" width="83.42578125" customWidth="1"/>
+    <col min="9" max="9" width="62.42578125" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" customWidth="1"/>
     <col min="11" max="11" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -630,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -653,7 +657,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -675,7 +679,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -698,7 +702,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -721,7 +725,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -744,7 +748,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -767,7 +771,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -788,7 +792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -811,7 +815,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -834,7 +838,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -856,7 +860,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -878,7 +882,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -886,7 +890,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -899,7 +903,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -908,7 +912,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -917,7 +921,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -926,7 +930,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -935,7 +939,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -944,7 +948,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -953,9 +957,17 @@
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8">
+        <f>SUM(E2:E20)</f>
+        <v>510.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -964,7 +976,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -973,7 +985,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -982,7 +994,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -991,7 +1003,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1000,7 +1012,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1009,7 +1021,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1018,7 +1030,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
@@ -1027,7 +1039,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1036,7 +1048,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1046,7 +1058,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1054,7 +1066,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1063,7 +1075,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
@@ -1072,7 +1084,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1081,7 +1093,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1089,7 +1101,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1097,7 +1109,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1105,20 +1117,20 @@
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="6">
         <f>SUM(E2:E41)</f>
-        <v>510.45</v>
+        <v>1020.9</v>
       </c>
     </row>
   </sheetData>
